--- a/Leyes de alegebra booleana.xlsx
+++ b/Leyes de alegebra booleana.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cisco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cisco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B4AADB-D13F-4792-A5FD-B54D002FDC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF66BE02-AE8E-42FE-8D52-1DD9338E956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FEE609A8-9D40-4E98-9499-96567A765184}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="27">
   <si>
     <t>X</t>
   </si>
@@ -61,40 +61,61 @@
     <t>F</t>
   </si>
   <si>
+    <t>X * ´X</t>
+  </si>
+  <si>
+    <t>X + ´X</t>
+  </si>
+  <si>
+    <t>X + X</t>
+  </si>
+  <si>
+    <t>X * X</t>
+  </si>
+  <si>
+    <t>( X v Y)^2</t>
+  </si>
+  <si>
+    <t>´X v 'Y</t>
+  </si>
+  <si>
+    <t>Ley de Morgan</t>
+  </si>
+  <si>
+    <t>Ley distribuitiva</t>
+  </si>
+  <si>
+    <t>Ley de idnetidad</t>
+  </si>
+  <si>
+    <t>Ley de complementos</t>
+  </si>
+  <si>
+    <t>Ley de idempotencia</t>
+  </si>
+  <si>
+    <t>X + F</t>
+  </si>
+  <si>
+    <t>(X * Y) * Z</t>
+  </si>
+  <si>
+    <t>X * (Y * Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+  </si>
+  <si>
+    <t>´X</t>
+  </si>
+  <si>
     <t>X * F</t>
   </si>
   <si>
-    <t>X * ´X</t>
-  </si>
-  <si>
-    <t>X + ´X</t>
-  </si>
-  <si>
-    <t>X + X</t>
-  </si>
-  <si>
-    <t>X * X</t>
-  </si>
-  <si>
-    <t>( X v Y)^2</t>
-  </si>
-  <si>
-    <t>´X v 'Y</t>
-  </si>
-  <si>
-    <t>Ley de Morgan</t>
-  </si>
-  <si>
-    <t>Ley distribuitiva</t>
-  </si>
-  <si>
-    <t>Ley de idnetidad</t>
-  </si>
-  <si>
-    <t>Ley de complementos</t>
-  </si>
-  <si>
-    <t>Ley de idempotencia</t>
+    <t>( X * Y)^2</t>
+  </si>
+  <si>
+    <t>´X * 'Y</t>
   </si>
 </sst>
 </file>
@@ -179,31 +200,15 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{98BC2756-AAAA-48E8-9224-503FC5C7DDFF}" name="X"/>
     <tableColumn id="2" xr3:uid="{6B674053-3021-4A91-B260-44E004ADE370}" name="F"/>
-    <tableColumn id="3" xr3:uid="{32ECFDCD-8C36-4FD8-96E7-D34BB3086CD3}" name="X * F"/>
+    <tableColumn id="3" xr3:uid="{32ECFDCD-8C36-4FD8-96E7-D34BB3086CD3}" name="X + F"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B73E4602-0849-4E55-B23D-E489E2B8B958}" name="Tabla5" displayName="Tabla5" ref="H12:J14" totalsRowShown="0">
-  <autoFilter ref="H12:J14" xr:uid="{B73E4602-0849-4E55-B23D-E489E2B8B958}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{914CDD82-4CDA-43C0-82D8-C5416AEB139D}" name="X"/>
-    <tableColumn id="2" xr3:uid="{5D1A8679-2B86-4EA8-BF51-9989C624A465}" name="X + ´X"/>
-    <tableColumn id="3" xr3:uid="{710B6CB0-6D28-4F87-B4EA-4169D90516E5}" name="X * ´X"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46B1B9A1-BFBE-4FAB-9885-09EF1DE521EF}" name="Tabla6" displayName="Tabla6" ref="H17:J19" totalsRowShown="0">
-  <autoFilter ref="H17:J19" xr:uid="{46B1B9A1-BFBE-4FAB-9885-09EF1DE521EF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46B1B9A1-BFBE-4FAB-9885-09EF1DE521EF}" name="Tabla6" displayName="Tabla6" ref="H26:J28" totalsRowShown="0">
+  <autoFilter ref="H26:J28" xr:uid="{46B1B9A1-BFBE-4FAB-9885-09EF1DE521EF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -217,7 +222,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5BF94CF0-A5CF-4FC5-877A-7FC5DA9EB001}" name="Tabla7" displayName="Tabla7" ref="M7:P11" totalsRowShown="0">
   <autoFilter ref="M7:P11" xr:uid="{5BF94CF0-A5CF-4FC5-877A-7FC5DA9EB001}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -230,6 +235,92 @@
     <tableColumn id="2" xr3:uid="{DAFD0A4D-E443-4178-996C-22C29FF4D0A1}" name="Y"/>
     <tableColumn id="3" xr3:uid="{8F79C24E-1F60-4F96-AC45-90C3502EB761}" name="( X v Y)^2"/>
     <tableColumn id="4" xr3:uid="{4CB75AFD-69E0-48FB-943D-75F757A1C799}" name="´X v 'Y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFA85697-0A3F-483A-AAC4-1D78DEB611E9}" name="Tabla13" displayName="Tabla13" ref="B16:F24" totalsRowShown="0">
+  <autoFilter ref="B16:F24" xr:uid="{BFA85697-0A3F-483A-AAC4-1D78DEB611E9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{831BCDCA-DF2B-4FE6-94D2-948F26D6E64A}" name="X"/>
+    <tableColumn id="2" xr3:uid="{C4CAB7AF-55D1-410D-A85E-97BED36B7299}" name="Y"/>
+    <tableColumn id="3" xr3:uid="{87DF820B-AD80-4C61-9D89-943C3318E6BD}" name="Z"/>
+    <tableColumn id="4" xr3:uid="{DE67EBE0-C920-4C33-896E-6A5FDC33CBCC}" name="(X * Y) * Z"/>
+    <tableColumn id="5" xr3:uid="{92A4A78C-89EA-45F1-9005-3BA998B05541}" name="X * (Y * Z)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{77A6572D-702E-477C-95AA-7D2CBFC755B2}" name="Tabla5" displayName="Tabla5" ref="H16:J18" totalsRowShown="0">
+  <autoFilter ref="H16:J18" xr:uid="{77A6572D-702E-477C-95AA-7D2CBFC755B2}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3A6A22D2-2E06-4713-B872-5048F5EE5201}" name="X "/>
+    <tableColumn id="2" xr3:uid="{7750E94C-3A0C-437B-924C-D3CEDD9A7547}" name="´X"/>
+    <tableColumn id="3" xr3:uid="{DA0798DA-6D19-4C61-94B7-85C5FDF7A6BC}" name="X + ´X"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5D8C8565-A52D-4EB9-83B3-7022F840226B}" name="Tabla59" displayName="Tabla59" ref="H20:J22" totalsRowShown="0">
+  <autoFilter ref="H20:J22" xr:uid="{5D8C8565-A52D-4EB9-83B3-7022F840226B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5A6CC3C5-33DB-47E3-AA53-FA91E9F8EA7A}" name="X "/>
+    <tableColumn id="2" xr3:uid="{D65CE260-A81F-4B60-8E22-D8463A4018BD}" name="´X"/>
+    <tableColumn id="3" xr3:uid="{7AA7EDAD-433C-4E27-873F-052DF1FC58D2}" name="X * ´X"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C9083B54-70FA-4DC7-97C4-008098EF844F}" name="Tabla311" displayName="Tabla311" ref="H10:J12" totalsRowShown="0">
+  <autoFilter ref="H10:J12" xr:uid="{C9083B54-70FA-4DC7-97C4-008098EF844F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{897A6B36-A013-435D-A1EC-601417187875}" name="X"/>
+    <tableColumn id="2" xr3:uid="{82D846B5-C8F6-44BF-A926-B4EFA6198D87}" name="F"/>
+    <tableColumn id="3" xr3:uid="{3DBA72D2-95F8-4B2D-A666-C9BB1E770CEA}" name="X * F"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6E6B9548-D948-4DB4-AD1F-D0797D381D45}" name="Tabla712" displayName="Tabla712" ref="M14:P18" totalsRowShown="0">
+  <autoFilter ref="M14:P18" xr:uid="{6E6B9548-D948-4DB4-AD1F-D0797D381D45}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8724AD43-1539-4159-ACA8-856E45982087}" name="X"/>
+    <tableColumn id="2" xr3:uid="{45D91945-13EA-4996-A503-2E6AC427E638}" name="Y"/>
+    <tableColumn id="3" xr3:uid="{29577DBD-CFDD-43AA-9A16-3D17C1218C21}" name="( X * Y)^2"/>
+    <tableColumn id="4" xr3:uid="{511506E0-3A6B-404B-ACF6-6E7C03C73632}" name="´X * 'Y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB57E47-8C25-407F-BB51-062688D02130}">
-  <dimension ref="B3:Q19"/>
+  <dimension ref="B3:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,12 +638,12 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -595,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -630,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -703,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -722,6 +813,15 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" t="s">
         <v>6</v>
       </c>
@@ -752,7 +852,13 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
       </c>
       <c r="M11" t="s">
         <v>6</v>
@@ -784,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -809,73 +915,332 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
       <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
